--- a/other/input/AQWMS/aqwms_qaqc/aqwms_qaqc_info.xlsx
+++ b/other/input/AQWMS/aqwms_qaqc/aqwms_qaqc_info.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="field_dup_sites_2021" sheetId="1" r:id="rId1"/>
-    <sheet name="qaqc_objectives_2021" sheetId="2" r:id="rId2"/>
+    <sheet name="intrinsic_qaqc_objectives_2021" sheetId="2" r:id="rId2"/>
+    <sheet name="analytes_qaqc_objectives_2021" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>Quality Control Field Replicate Msr/Obs</t>
   </si>
@@ -143,6 +144,135 @@
   </si>
   <si>
     <t>SM 2550 B-2000 95_x000D_-5 to 95, -5 to +45, and -5 to +45</t>
+  </si>
+  <si>
+    <t>Recovery: 60-120%</t>
+  </si>
+  <si>
+    <t>METHOD / RANGE</t>
+  </si>
+  <si>
+    <t>Sensitivity (MDL)</t>
+  </si>
+  <si>
+    <t>Gasoline Range Organics (GRO)</t>
+  </si>
+  <si>
+    <t>3.0 Î¼g/L</t>
+  </si>
+  <si>
+    <t>5x MDL</t>
+  </si>
+  <si>
+    <t>Calibration: Â±25%</t>
+  </si>
+  <si>
+    <t>Diesel Range Organics (DRO)</t>
+  </si>
+  <si>
+    <t>0.0065 mg/L</t>
+  </si>
+  <si>
+    <t>0.11 mg/L</t>
+  </si>
+  <si>
+    <t>Recovery: Â±25%</t>
+  </si>
+  <si>
+    <t>Residual Range Organics (RRO)</t>
+  </si>
+  <si>
+    <t>0.22 mg/L</t>
+  </si>
+  <si>
+    <t>0.54 mg/L</t>
+  </si>
+  <si>
+    <t>Calibration: 75-105%</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>0.074 Î¼g/L</t>
+  </si>
+  <si>
+    <t>1.0 Î¼g/L</t>
+  </si>
+  <si>
+    <t>Calibration: Â±15%</t>
+  </si>
+  <si>
+    <t>Recovery: Â±30%</t>
+  </si>
+  <si>
+    <t>Ethylbenzene</t>
+  </si>
+  <si>
+    <t>0..088 Î¼g/L</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>0.078 Î¼g/L</t>
+  </si>
+  <si>
+    <t>m,p-Xylene (total)</t>
+  </si>
+  <si>
+    <t>0.20 Î¼g/L</t>
+  </si>
+  <si>
+    <t>2.0 Î¼g/L</t>
+  </si>
+  <si>
+    <t>o-Xylene</t>
+  </si>
+  <si>
+    <t>Xylenes (total)</t>
+  </si>
+  <si>
+    <t>0.82 Î¼g/L</t>
+  </si>
+  <si>
+    <t>Bromofluorobenzene (surrogate)</t>
+  </si>
+  <si>
+    <t>EPA 602 by GCPID</t>
+  </si>
+  <si>
+    <t>0.12 Î¼g/L</t>
+  </si>
+  <si>
+    <t>0.50 Î¼g/L</t>
+  </si>
+  <si>
+    <t>PQL</t>
+  </si>
+  <si>
+    <t>AK101 by GCFID: 25-1000000000</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Calibration: Â±25% (Recovery: 60-120%)</t>
+  </si>
+  <si>
+    <t>SENSITIVITY_UNIT</t>
+  </si>
+  <si>
+    <t>PROJECT_PRECISION</t>
+  </si>
+  <si>
+    <t>AK102 by GCFID: 50-1000000</t>
+  </si>
+  <si>
+    <t>AK103 by GCFID: 500-1000000</t>
+  </si>
+  <si>
+    <t>EPA 602 by GC/PID: 1-1000000000</t>
   </si>
 </sst>
 </file>
@@ -184,9 +314,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,4 +1012,309 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/other/input/AQWMS/aqwms_qaqc/aqwms_qaqc_info.xlsx
+++ b/other/input/AQWMS/aqwms_qaqc/aqwms_qaqc_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="field_dup_sites_2021" sheetId="1" r:id="rId1"/>
@@ -599,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
     <col min="1" max="1" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -634,7 +634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -653,12 +653,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/other/input/AQWMS/aqwms_qaqc/aqwms_qaqc_info.xlsx
+++ b/other/input/AQWMS/aqwms_qaqc/aqwms_qaqc_info.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="field_dup_sites_2021" sheetId="1" r:id="rId1"/>
-    <sheet name="intrinsic_qaqc_objectives_2021" sheetId="2" r:id="rId2"/>
-    <sheet name="analytes_qaqc_objectives_2021" sheetId="3" r:id="rId3"/>
+    <sheet name="instrument_qaqc_objectives" sheetId="2" r:id="rId2"/>
+    <sheet name="hydrocarbon_qaqc_objectives" sheetId="3" r:id="rId3"/>
+    <sheet name="metals_nutrient_qaqc_objectives" sheetId="4" r:id="rId4"/>
+    <sheet name="temperature_qaqc_objectives" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="110">
   <si>
     <t>Quality Control Field Replicate Msr/Obs</t>
   </si>
@@ -146,140 +148,229 @@
     <t>SM 2550 B-2000 95_x000D_-5 to 95, -5 to +45, and -5 to +45</t>
   </si>
   <si>
-    <t>Recovery: 60-120%</t>
-  </si>
-  <si>
-    <t>METHOD / RANGE</t>
-  </si>
-  <si>
-    <t>Sensitivity (MDL)</t>
-  </si>
-  <si>
     <t>Gasoline Range Organics (GRO)</t>
   </si>
   <si>
-    <t>3.0 Î¼g/L</t>
-  </si>
-  <si>
-    <t>5x MDL</t>
-  </si>
-  <si>
-    <t>Calibration: Â±25%</t>
-  </si>
-  <si>
     <t>Diesel Range Organics (DRO)</t>
   </si>
   <si>
-    <t>0.0065 mg/L</t>
-  </si>
-  <si>
-    <t>0.11 mg/L</t>
-  </si>
-  <si>
-    <t>Recovery: Â±25%</t>
-  </si>
-  <si>
     <t>Residual Range Organics (RRO)</t>
   </si>
   <si>
-    <t>0.22 mg/L</t>
-  </si>
-  <si>
-    <t>0.54 mg/L</t>
-  </si>
-  <si>
-    <t>Calibration: 75-105%</t>
-  </si>
-  <si>
     <t>Benzene</t>
   </si>
   <si>
-    <t>0.074 Î¼g/L</t>
-  </si>
-  <si>
-    <t>1.0 Î¼g/L</t>
-  </si>
-  <si>
-    <t>Calibration: Â±15%</t>
-  </si>
-  <si>
-    <t>Recovery: Â±30%</t>
-  </si>
-  <si>
     <t>Ethylbenzene</t>
   </si>
   <si>
-    <t>0..088 Î¼g/L</t>
-  </si>
-  <si>
     <t>Toluene</t>
   </si>
   <si>
-    <t>0.078 Î¼g/L</t>
-  </si>
-  <si>
     <t>m,p-Xylene (total)</t>
   </si>
   <si>
-    <t>0.20 Î¼g/L</t>
-  </si>
-  <si>
-    <t>2.0 Î¼g/L</t>
-  </si>
-  <si>
     <t>o-Xylene</t>
   </si>
   <si>
     <t>Xylenes (total)</t>
   </si>
   <si>
-    <t>0.82 Î¼g/L</t>
-  </si>
-  <si>
     <t>Bromofluorobenzene (surrogate)</t>
   </si>
   <si>
     <t>EPA 602 by GCPID</t>
   </si>
   <si>
-    <t>0.12 Î¼g/L</t>
-  </si>
-  <si>
-    <t>0.50 Î¼g/L</t>
-  </si>
-  <si>
     <t>PQL</t>
   </si>
   <si>
-    <t>AK101 by GCFID: 25-1000000000</t>
-  </si>
-  <si>
     <t>NOTES</t>
   </si>
   <si>
-    <t>Calibration: Â±25% (Recovery: 60-120%)</t>
-  </si>
-  <si>
     <t>SENSITIVITY_UNIT</t>
   </si>
   <si>
-    <t>PROJECT_PRECISION</t>
-  </si>
-  <si>
-    <t>AK102 by GCFID: 50-1000000</t>
-  </si>
-  <si>
-    <t>AK103 by GCFID: 500-1000000</t>
-  </si>
-  <si>
-    <t>EPA 602 by GC/PID: 1-1000000000</t>
+    <t>ug/L</t>
+  </si>
+  <si>
+    <t>METHOD</t>
+  </si>
+  <si>
+    <t>SENSITIVITY_MDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK101 by GCFID </t>
+  </si>
+  <si>
+    <t>AK102 by GCFID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK103 by GCFID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPA 602 by GC/PID </t>
+  </si>
+  <si>
+    <t>5x_MDL</t>
+  </si>
+  <si>
+    <t>PQL = 5x MDL</t>
+  </si>
+  <si>
+    <t>EPA 624</t>
+  </si>
+  <si>
+    <t>1,2-Dichloroethane-D4_x000D_(surrogate)</t>
+  </si>
+  <si>
+    <t>4-Bromofluorobenzene_x000D_(surrogate)</t>
+  </si>
+  <si>
+    <t>Toluene D-8_x000D_(surrogate)</t>
+  </si>
+  <si>
+    <t>ACCURACY_CALIBRATION_MIN_PCT</t>
+  </si>
+  <si>
+    <t>ACCURACY_CALIBRATION_MAX_PCT</t>
+  </si>
+  <si>
+    <t>ACCURACY_RECOVERY_MIN_PCT</t>
+  </si>
+  <si>
+    <t>ACCURACY_RECOVERY_MAX_PCT</t>
+  </si>
+  <si>
+    <t>OVERALL_PROJECT_PRECISION_PCT</t>
+  </si>
+  <si>
+    <t>METHOD_MIN_RANGE</t>
+  </si>
+  <si>
+    <t>METHOD_MAX_RANGE</t>
+  </si>
+  <si>
+    <t>Hardness</t>
+  </si>
+  <si>
+    <t>EPA 200.7</t>
+  </si>
+  <si>
+    <t>Arsenic, dissolved</t>
+  </si>
+  <si>
+    <t>EPA 200.8</t>
+  </si>
+  <si>
+    <t>Cadmium, dissolved</t>
+  </si>
+  <si>
+    <t>Chromium, dissolved</t>
+  </si>
+  <si>
+    <t>Copper, dissolved</t>
+  </si>
+  <si>
+    <t>Lead, dissolved</t>
+  </si>
+  <si>
+    <t>Zinc, dissolved</t>
+  </si>
+  <si>
+    <t>SM21 4500-P-B,E</t>
+  </si>
+  <si>
+    <t>SM21 4500-NO3-F</t>
+  </si>
+  <si>
+    <t>SM21-2540-+D</t>
+  </si>
+  <si>
+    <t>Fecal coliform</t>
+  </si>
+  <si>
+    <t>Nitrates (NO2 + NO3)</t>
+  </si>
+  <si>
+    <t>Total Suspended Solids</t>
+  </si>
+  <si>
+    <t>SM 9222D-1997-membrane</t>
+  </si>
+  <si>
+    <t>cfu/100 mL</t>
+  </si>
+  <si>
+    <t>ACCURACY_PLUS_MINUS_PCT</t>
+  </si>
+  <si>
+    <t>HOBO TIDBIT V2</t>
+  </si>
+  <si>
+    <t>RESOLUTION_LIMIT_C</t>
+  </si>
+  <si>
+    <t>Other method: SM 2550 B-2000</t>
+  </si>
+  <si>
+    <t>AIR TEMPERATURE</t>
+  </si>
+  <si>
+    <t>WATER TEMPERATURE</t>
+  </si>
+  <si>
+    <t>MIN_EXPECTED_RANGE_C</t>
+  </si>
+  <si>
+    <t>MAX_EXPECTED_RANGE_C</t>
+  </si>
+  <si>
+    <t>HOBO WATER TEMP PRO V2</t>
+  </si>
+  <si>
+    <t>ACCURACY_PLUS_MINUS_C</t>
+  </si>
+  <si>
+    <t>Accuracy within 0-50 C range</t>
+  </si>
+  <si>
+    <t>PRECISION_C</t>
+  </si>
+  <si>
+    <t>COMPLETENESS_PCT</t>
+  </si>
+  <si>
+    <t>Calcium, Total</t>
+  </si>
+  <si>
+    <t>Calculated from Ca, Total and Mg, Total as CaCO3 + MgCO3</t>
+  </si>
+  <si>
+    <t>Iron, Total</t>
+  </si>
+  <si>
+    <t>Magnesium, Total</t>
+  </si>
+  <si>
+    <t>Phosphorous, Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,17 +402,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +783,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,302 +1125,1130 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="24.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>1000000000</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>1000000</v>
+      </c>
+      <c r="E5">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>1000000</v>
+      </c>
+      <c r="E7">
+        <v>0.22</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1000000000</v>
+      </c>
+      <c r="E9">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1000000000</v>
+      </c>
+      <c r="E11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K11" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1000000000</v>
+      </c>
+      <c r="E13">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K13" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1000000000</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K15" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1000000000</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K17" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="10"/>
+      <c r="I18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1000000000</v>
+      </c>
+      <c r="E19">
+        <v>0.82</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K19" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>0.12</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K21" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="11"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>0.12</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25"/>
+      <c r="M25" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26">
+        <v>0.31</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I26"/>
+      <c r="M26" s="7">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27">
+        <v>0.31</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I27"/>
+      <c r="M27" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28">
+        <v>0.62</v>
+      </c>
+      <c r="F28" s="10">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I28"/>
+      <c r="M28" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>0.31</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I29"/>
+      <c r="M29" s="7">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="M30" s="7">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="M31" s="7">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="M32" s="7">
+        <v>0.115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
       </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="10">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>0.16</v>
+      </c>
+      <c r="D2">
+        <v>-5</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="F5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G22" t="s">
-        <v>60</v>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
